--- a/Expired.xlsx
+++ b/Expired.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bruggnet-my.sharepoint.com/personal/patrik_eichmann_rittmeyer_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\RtD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57FEC395-E66E-40AA-A2B7-FFC6FF009C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9C6302-CD72-44E5-9A5B-D8ED5FC5EA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{510363A6-C3ED-4689-B01E-CE57EE14E4B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{510363A6-C3ED-4689-B01E-CE57EE14E4B7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Exp.Core" sheetId="1" r:id="rId1"/>
+    <sheet name="Legende" sheetId="3" r:id="rId1"/>
+    <sheet name="Overview" sheetId="2" r:id="rId2"/>
+    <sheet name="Exp.Public" sheetId="1" r:id="rId3"/>
+    <sheet name="Mod" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
-  <si>
-    <t>Api</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>Main</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Smithing</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>IMain</t>
   </si>
   <si>
@@ -289,6 +286,60 @@
   </si>
   <si>
     <t>ITargetEffect</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>Exp.Public</t>
+  </si>
+  <si>
+    <t>Exp.Util</t>
+  </si>
+  <si>
+    <t>Exp.Core</t>
+  </si>
+  <si>
+    <t>Exp.DefaultMod</t>
+  </si>
+  <si>
+    <t>Namespace</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Klasse</t>
+  </si>
+  <si>
+    <t>Externer Namespace</t>
+  </si>
+  <si>
+    <t>"YourMod"</t>
+  </si>
+  <si>
+    <t>Exp.Exception</t>
+  </si>
+  <si>
+    <t>Exp.Data</t>
+  </si>
+  <si>
+    <t>Exp.Api</t>
+  </si>
+  <si>
+    <t>DiceNotFoundException</t>
+  </si>
+  <si>
+    <t>Exp.Util.Extension</t>
+  </si>
+  <si>
+    <t>StringExtension</t>
+  </si>
+  <si>
+    <t>MeinFeind</t>
+  </si>
+  <si>
+    <t>MeinItem</t>
   </si>
 </sst>
 </file>
@@ -303,7 +354,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +379,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -408,11 +465,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -421,6 +500,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,24 +526,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -463,15 +540,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -785,104 +879,468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814A47DF-4E50-4C71-A998-9BF6721E8B73}">
-  <dimension ref="A1:R179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C59234-71CF-4A4B-852B-19BC44F23161}">
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B5:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05A476A-8A45-48CA-B550-3AB7CD092353}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="18" width="10.7109375" customWidth="1"/>
+    <col min="1" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="5.6328125" customWidth="1"/>
+    <col min="4" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" customWidth="1"/>
+    <col min="7" max="8" width="10.6328125" customWidth="1"/>
+    <col min="9" max="9" width="5.6328125" customWidth="1"/>
+    <col min="10" max="11" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="5.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" customWidth="1"/>
+    <col min="15" max="15" width="5.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="K1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="D5:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814A47DF-4E50-4C71-A998-9BF6721E8B73}">
+  <dimension ref="A1:AF179"/>
+  <sheetViews>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="Q100" sqref="Q100:R104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="5.6328125" customWidth="1"/>
+    <col min="4" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" customWidth="1"/>
+    <col min="7" max="12" width="10.6328125" customWidth="1"/>
+    <col min="13" max="13" width="5.6328125" customWidth="1"/>
+    <col min="14" max="15" width="10.6328125" customWidth="1"/>
+    <col min="16" max="16" width="5.6328125" customWidth="1"/>
+    <col min="17" max="22" width="10.6328125" customWidth="1"/>
+    <col min="23" max="23" width="5.6328125" customWidth="1"/>
+    <col min="24" max="25" width="10.6328125" customWidth="1"/>
+    <col min="28" max="29" width="10.6328125" customWidth="1"/>
+    <col min="30" max="30" width="5.6328125" customWidth="1"/>
+    <col min="31" max="32" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="K1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="U1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" s="17"/>
+      <c r="AB1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC1" s="17"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="19"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
       <c r="L3" s="6"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V3" s="2"/>
+      <c r="W3" s="4"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="4"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15"/>
+      <c r="D4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25"/>
       <c r="L4" s="1"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y4" s="25"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" s="25"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="L5" s="2"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="27"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="27"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
       <c r="L6" s="2"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9"/>
+      <c r="D7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17"/>
       <c r="L7" s="1"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N7" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
       <c r="L8" s="6"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="N8" s="18"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="E9" s="2"/>
@@ -890,1788 +1348,1788 @@
       <c r="M9" s="4"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="15"/>
+      <c r="G10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="25"/>
       <c r="I10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="4"/>
       <c r="O10" s="1"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="19"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="21"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="L11" s="2"/>
       <c r="M11" s="4"/>
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="L12" s="2"/>
       <c r="M12" s="4"/>
       <c r="O12" s="2"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="L13" s="2"/>
       <c r="M13" s="4"/>
       <c r="O13" s="1"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R13" s="15"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="L14" s="2"/>
       <c r="M14" s="4"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="17"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
       <c r="L15" s="2"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="9"/>
+      <c r="D16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="17"/>
       <c r="L16" s="1"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
       <c r="L17" s="6"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="E18" s="6"/>
       <c r="L18" s="2"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="15"/>
+      <c r="G19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="25"/>
       <c r="L19" s="2"/>
       <c r="O19" s="1"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R19" s="19"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q19" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="21"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
       <c r="L20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="21"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="L21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
       <c r="L22" s="2"/>
       <c r="O22" s="1"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R22" s="15"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="R22" s="25"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
       <c r="L23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="17"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="E24" s="2"/>
       <c r="L24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="15"/>
+      <c r="G25" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="25"/>
       <c r="L25" s="2"/>
       <c r="O25" s="1"/>
       <c r="P25" s="3"/>
-      <c r="Q25" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="R25" s="19"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25" s="21"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
       <c r="L26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="21"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q26" s="22"/>
+      <c r="R26" s="23"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
       <c r="L27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="L28" s="2"/>
       <c r="O28" s="1"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="R28" s="15"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q28" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="25"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="L29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="17"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="E30" s="2"/>
       <c r="L30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="15"/>
+      <c r="G31" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="25"/>
       <c r="L31" s="2"/>
       <c r="O31" s="1"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="R31" s="19"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q31" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="21"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
       <c r="L32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="21"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q32" s="22"/>
+      <c r="R32" s="23"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="L33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="L34" s="2"/>
       <c r="O34" s="1"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="R34" s="15"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R34" s="25"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
       <c r="L35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="17"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="E36" s="2"/>
       <c r="L36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="15"/>
+      <c r="G37" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="25"/>
       <c r="L37" s="2"/>
       <c r="O37" s="1"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="R37" s="19"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q37" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R37" s="21"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
       <c r="L38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="21"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q38" s="22"/>
+      <c r="R38" s="23"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
       <c r="L39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
       <c r="L40" s="2"/>
       <c r="O40" s="1"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="R40" s="15"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q40" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="R40" s="25"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
       <c r="L41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="17"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="E42" s="2"/>
       <c r="L42" s="2"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="15"/>
+      <c r="G43" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="25"/>
       <c r="L43" s="2"/>
       <c r="O43" s="1"/>
       <c r="P43" s="3"/>
-      <c r="Q43" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="R43" s="19"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q43" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R43" s="21"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
       <c r="L44" s="2"/>
       <c r="O44" s="6"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q44" s="22"/>
+      <c r="R44" s="23"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
       <c r="L45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
       <c r="L46" s="2"/>
       <c r="O46" s="1"/>
       <c r="P46" s="3"/>
-      <c r="Q46" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="R46" s="15"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q46" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="25"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
       <c r="L47" s="2"/>
       <c r="O47" s="4"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="17"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q47" s="26"/>
+      <c r="R47" s="27"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="9"/>
+      <c r="D49" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="17"/>
       <c r="L49" s="1"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O49" s="9"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N49" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O49" s="17"/>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19"/>
       <c r="L50" s="2"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="11"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N50" s="18"/>
+      <c r="O50" s="19"/>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="E51" s="6"/>
       <c r="L51" s="2"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="15"/>
+      <c r="G52" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="25"/>
       <c r="L52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="4"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
       <c r="L53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="4"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="E54" s="2"/>
       <c r="L54" s="2"/>
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="15"/>
+      <c r="G55" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="25"/>
       <c r="L55" s="2"/>
       <c r="O55" s="1"/>
       <c r="P55" s="3"/>
-      <c r="Q55" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="R55" s="19"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q55" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R55" s="21"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
       <c r="L56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="21"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q56" s="22"/>
+      <c r="R56" s="23"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
       <c r="L57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
       <c r="L58" s="2"/>
       <c r="O58" s="1"/>
       <c r="P58" s="3"/>
-      <c r="Q58" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="R58" s="15"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q58" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="R58" s="25"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
       <c r="L59" s="2"/>
       <c r="O59" s="2"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="17"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q59" s="26"/>
+      <c r="R59" s="27"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="E60" s="2"/>
       <c r="L60" s="2"/>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="15"/>
+      <c r="G61" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="25"/>
       <c r="L61" s="2"/>
       <c r="O61" s="1"/>
       <c r="P61" s="3"/>
-      <c r="Q61" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="R61" s="19"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q61" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R61" s="21"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="27"/>
       <c r="L62" s="2"/>
       <c r="O62" s="2"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="21"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q62" s="22"/>
+      <c r="R62" s="23"/>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
       <c r="L63" s="2"/>
       <c r="O63" s="2"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
       <c r="L64" s="2"/>
       <c r="O64" s="1"/>
       <c r="P64" s="3"/>
-      <c r="Q64" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R64" s="15"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q64" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="R64" s="25"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
       <c r="L65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="17"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q65" s="26"/>
+      <c r="R65" s="27"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="E66" s="2"/>
       <c r="L66" s="2"/>
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="15"/>
+      <c r="G67" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="25"/>
       <c r="L67" s="2"/>
       <c r="O67" s="1"/>
       <c r="P67" s="3"/>
-      <c r="Q67" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="R67" s="19"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q67" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R67" s="21"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
       <c r="L68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="21"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q68" s="22"/>
+      <c r="R68" s="23"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
       <c r="L69" s="2"/>
       <c r="O69" s="2"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
       <c r="L70" s="2"/>
       <c r="O70" s="1"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="R70" s="15"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q70" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="R70" s="25"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
       <c r="L71" s="2"/>
       <c r="O71" s="2"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="17"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q71" s="26"/>
+      <c r="R71" s="27"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="E72" s="2"/>
       <c r="L72" s="2"/>
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="15"/>
+      <c r="G73" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="25"/>
       <c r="L73" s="2"/>
       <c r="O73" s="1"/>
       <c r="P73" s="3"/>
-      <c r="Q73" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="R73" s="19"/>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q73" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R73" s="21"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="17"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27"/>
       <c r="L74" s="2"/>
       <c r="O74" s="6"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="21"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q74" s="22"/>
+      <c r="R74" s="23"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
       <c r="L75" s="2"/>
       <c r="O75" s="2"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
       <c r="L76" s="2"/>
       <c r="O76" s="1"/>
       <c r="P76" s="3"/>
-      <c r="Q76" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R76" s="15"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q76" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="R76" s="25"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
       <c r="L77" s="2"/>
       <c r="O77" s="7"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="17"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q77" s="26"/>
+      <c r="R77" s="27"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
       <c r="L78" s="2"/>
       <c r="O78" s="4"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E79" s="9"/>
+      <c r="D79" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="17"/>
       <c r="L79" s="1"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O79" s="9"/>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N79" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O79" s="17"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="19"/>
       <c r="L80" s="2"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="11"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N80" s="18"/>
+      <c r="O80" s="19"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="E81" s="6"/>
       <c r="L81" s="2"/>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H82" s="15"/>
+      <c r="G82" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H82" s="25"/>
       <c r="L82" s="2"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O82" s="12"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="17"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
       <c r="L83" s="2"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O83" s="12"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
       <c r="L84" s="2"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O84" s="12"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H85" s="15"/>
+      <c r="G85" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H85" s="25"/>
       <c r="L85" s="2"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="26"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O85" s="12"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="17"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
       <c r="L86" s="2"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="O86" s="12"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="E87" s="2"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
       <c r="L87" s="2"/>
       <c r="O87" s="2"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H88" s="15"/>
+      <c r="G88" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H88" s="25"/>
       <c r="L88" s="2"/>
       <c r="O88" s="1"/>
       <c r="P88" s="3"/>
-      <c r="Q88" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="R88" s="19"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q88" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="R88" s="21"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="E89" s="7"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
       <c r="L89" s="2"/>
       <c r="O89" s="7"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="21"/>
-    </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q89" s="22"/>
+      <c r="R89" s="23"/>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="L90" s="2"/>
-      <c r="Q90" s="23"/>
-      <c r="R90" s="23"/>
-    </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q90" s="11"/>
+      <c r="R90" s="11"/>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="9"/>
+      <c r="D91" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="17"/>
       <c r="L91" s="1"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O91" s="9"/>
-    </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N91" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O91" s="17"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="11"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="19"/>
       <c r="L92" s="2"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="11"/>
-    </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N92" s="18"/>
+      <c r="O92" s="19"/>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="E93" s="6"/>
       <c r="L93" s="2"/>
       <c r="O93" s="6"/>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" s="15"/>
+      <c r="G94" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="25"/>
       <c r="L94" s="2"/>
       <c r="O94" s="1"/>
       <c r="P94" s="3"/>
-      <c r="Q94" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R94" s="19"/>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q94" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R94" s="21"/>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="E95" s="2"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="17"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="27"/>
       <c r="L95" s="2"/>
       <c r="O95" s="2"/>
-      <c r="Q95" s="20"/>
-      <c r="R95" s="21"/>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q95" s="22"/>
+      <c r="R95" s="23"/>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="E96" s="2"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
       <c r="L96" s="2"/>
       <c r="O96" s="2"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="E97" s="2"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
       <c r="L97" s="2"/>
       <c r="O97" s="1"/>
       <c r="P97" s="3"/>
-      <c r="Q97" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R97" s="15"/>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q97" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="R97" s="25"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="E98" s="2"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
       <c r="L98" s="2"/>
       <c r="O98" s="6"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="17"/>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q98" s="26"/>
+      <c r="R98" s="27"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="E99" s="2"/>
       <c r="L99" s="2"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="15"/>
+      <c r="G100" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="25"/>
       <c r="L100" s="2"/>
       <c r="O100" s="1"/>
       <c r="P100" s="3"/>
-      <c r="Q100" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="R100" s="19"/>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q100" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R100" s="21"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="E101" s="2"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="17"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="27"/>
       <c r="L101" s="2"/>
       <c r="O101" s="2"/>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="21"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q101" s="22"/>
+      <c r="R101" s="23"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="E102" s="2"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
       <c r="L102" s="2"/>
       <c r="O102" s="2"/>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="22"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="E103" s="2"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
       <c r="L103" s="2"/>
       <c r="O103" s="1"/>
       <c r="P103" s="3"/>
-      <c r="Q103" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="R103" s="15"/>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q103" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R103" s="25"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
       <c r="L104" s="2"/>
       <c r="O104" s="6"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="17"/>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q104" s="26"/>
+      <c r="R104" s="27"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="E105" s="2"/>
       <c r="L105" s="2"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H106" s="15"/>
+      <c r="G106" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="25"/>
       <c r="L106" s="2"/>
       <c r="O106" s="1"/>
       <c r="P106" s="3"/>
-      <c r="Q106" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="R106" s="19"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q106" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="R106" s="21"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="E107" s="2"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="17"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="27"/>
       <c r="L107" s="2"/>
       <c r="O107" s="2"/>
-      <c r="Q107" s="20"/>
-      <c r="R107" s="21"/>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q107" s="22"/>
+      <c r="R107" s="23"/>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
       <c r="L108" s="2"/>
       <c r="O108" s="2"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="22"/>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
       <c r="L109" s="2"/>
       <c r="O109" s="1"/>
       <c r="P109" s="3"/>
-      <c r="Q109" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="R109" s="15"/>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q109" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R109" s="25"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="E110" s="2"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
       <c r="L110" s="2"/>
       <c r="O110" s="6"/>
-      <c r="Q110" s="16"/>
-      <c r="R110" s="17"/>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q110" s="26"/>
+      <c r="R110" s="27"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="E111" s="2"/>
       <c r="L111" s="2"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
-      <c r="G112" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="15"/>
+      <c r="G112" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="25"/>
       <c r="L112" s="2"/>
       <c r="O112" s="1"/>
       <c r="P112" s="3"/>
-      <c r="Q112" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="R112" s="19"/>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q112" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R112" s="21"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="E113" s="7"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="17"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="27"/>
       <c r="L113" s="2"/>
       <c r="O113" s="6"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="21"/>
-    </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q113" s="22"/>
+      <c r="R113" s="23"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="E114" s="4"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
       <c r="L114" s="2"/>
       <c r="O114" s="2"/>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="22"/>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="E115" s="4"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
       <c r="L115" s="2"/>
       <c r="O115" s="1"/>
       <c r="P115" s="3"/>
-      <c r="Q115" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R115" s="15"/>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q115" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="R115" s="25"/>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="E116" s="4"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
       <c r="L116" s="2"/>
       <c r="O116" s="7"/>
-      <c r="Q116" s="16"/>
-      <c r="R116" s="17"/>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q116" s="26"/>
+      <c r="R116" s="27"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="E117" s="4"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
       <c r="L117" s="2"/>
       <c r="O117" s="4"/>
-      <c r="Q117" s="22"/>
-      <c r="R117" s="22"/>
-    </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E118" s="9"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
+      <c r="D118" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E118" s="17"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
       <c r="L118" s="1"/>
       <c r="M118" s="3"/>
-      <c r="N118" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="O118" s="9"/>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="22"/>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N118" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="O118" s="17"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10"/>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="19"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
       <c r="L119" s="2"/>
-      <c r="N119" s="10"/>
-      <c r="O119" s="11"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="22"/>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N119" s="18"/>
+      <c r="O119" s="19"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="E120" s="2"/>
       <c r="L120" s="2"/>
       <c r="O120" s="6"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
-      <c r="G121" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H121" s="15"/>
+      <c r="G121" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H121" s="25"/>
       <c r="L121" s="2"/>
       <c r="O121" s="1"/>
       <c r="P121" s="3"/>
-      <c r="Q121" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="R121" s="19"/>
-    </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q121" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="R121" s="21"/>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="E122" s="2"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="17"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="27"/>
       <c r="L122" s="2"/>
       <c r="O122" s="2"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="21"/>
-    </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q122" s="22"/>
+      <c r="R122" s="23"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="22"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
       <c r="L123" s="2"/>
       <c r="O123" s="2"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="22"/>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q123" s="10"/>
+      <c r="R123" s="10"/>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
       <c r="L124" s="2"/>
       <c r="O124" s="1"/>
       <c r="P124" s="3"/>
-      <c r="Q124" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="R124" s="15"/>
-    </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q124" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="R124" s="25"/>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="22"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
       <c r="L125" s="2"/>
       <c r="O125" s="6"/>
-      <c r="Q125" s="16"/>
-      <c r="R125" s="17"/>
-    </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q125" s="26"/>
+      <c r="R125" s="27"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="E126" s="2"/>
       <c r="L126" s="2"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
-      <c r="G127" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H127" s="15"/>
+      <c r="G127" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H127" s="25"/>
       <c r="L127" s="2"/>
       <c r="O127" s="1"/>
       <c r="P127" s="3"/>
-      <c r="Q127" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R127" s="19"/>
-    </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q127" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="R127" s="21"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="E128" s="7"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="17"/>
+      <c r="G128" s="26"/>
+      <c r="H128" s="27"/>
       <c r="L128" s="2"/>
       <c r="O128" s="6"/>
-      <c r="Q128" s="20"/>
-      <c r="R128" s="21"/>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q128" s="22"/>
+      <c r="R128" s="23"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="E129" s="4"/>
-      <c r="G129" s="22"/>
-      <c r="H129" s="22"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
       <c r="L129" s="2"/>
       <c r="O129" s="2"/>
-      <c r="Q129" s="22"/>
-      <c r="R129" s="22"/>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q129" s="10"/>
+      <c r="R129" s="10"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="E130" s="4"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="22"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
       <c r="L130" s="2"/>
       <c r="O130" s="1"/>
       <c r="P130" s="3"/>
-      <c r="Q130" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="R130" s="15"/>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q130" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="R130" s="25"/>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="E131" s="4"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
       <c r="L131" s="2"/>
       <c r="O131" s="7"/>
-      <c r="Q131" s="16"/>
-      <c r="R131" s="17"/>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q131" s="26"/>
+      <c r="R131" s="27"/>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="E132" s="4"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="22"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
       <c r="L132" s="2"/>
       <c r="O132" s="4"/>
-      <c r="Q132" s="22"/>
-      <c r="R132" s="22"/>
-    </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E133" s="9"/>
+      <c r="D133" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="17"/>
       <c r="L133" s="1"/>
       <c r="M133" s="5"/>
-      <c r="N133" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O133" s="9"/>
-    </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N133" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O133" s="17"/>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="11"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="19"/>
       <c r="L134" s="2"/>
-      <c r="N134" s="10"/>
-      <c r="O134" s="11"/>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N134" s="18"/>
+      <c r="O134" s="19"/>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="E135" s="6"/>
       <c r="L135" s="2"/>
       <c r="O135" s="6"/>
     </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
-      <c r="G136" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H136" s="15"/>
+      <c r="G136" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H136" s="25"/>
       <c r="L136" s="2"/>
       <c r="O136" s="1"/>
       <c r="P136" s="3"/>
-      <c r="Q136" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="R136" s="19"/>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q136" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="R136" s="21"/>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="E137" s="2"/>
-      <c r="G137" s="16"/>
-      <c r="H137" s="17"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="27"/>
       <c r="L137" s="2"/>
       <c r="O137" s="2"/>
-      <c r="Q137" s="20"/>
-      <c r="R137" s="21"/>
-    </row>
-    <row r="138" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="24"/>
-      <c r="E138" s="24"/>
-      <c r="G138" s="22"/>
-      <c r="H138" s="22"/>
-      <c r="L138" s="24"/>
-      <c r="O138" s="24"/>
-      <c r="Q138" s="22"/>
-      <c r="R138" s="22"/>
-    </row>
-    <row r="139" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="24"/>
-      <c r="E139" s="24"/>
-      <c r="G139" s="22"/>
-      <c r="H139" s="22"/>
-      <c r="L139" s="24"/>
+      <c r="Q137" s="22"/>
+      <c r="R137" s="23"/>
+    </row>
+    <row r="138" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="L138" s="12"/>
+      <c r="O138" s="12"/>
+      <c r="Q138" s="10"/>
+      <c r="R138" s="10"/>
+    </row>
+    <row r="139" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="L139" s="12"/>
       <c r="O139" s="1"/>
       <c r="P139" s="3"/>
-      <c r="Q139" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="R139" s="15"/>
-    </row>
-    <row r="140" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="24"/>
-      <c r="E140" s="24"/>
-      <c r="G140" s="22"/>
-      <c r="H140" s="22"/>
-      <c r="L140" s="24"/>
+      <c r="Q139" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="R139" s="25"/>
+    </row>
+    <row r="140" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="L140" s="12"/>
       <c r="O140" s="6"/>
       <c r="P140"/>
-      <c r="Q140" s="16"/>
-      <c r="R140" s="17"/>
-    </row>
-    <row r="141" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="L141" s="24"/>
-      <c r="O141" s="24"/>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q140" s="26"/>
+      <c r="R140" s="27"/>
+    </row>
+    <row r="141" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="O141" s="12"/>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
-      <c r="G142" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H142" s="15"/>
+      <c r="G142" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" s="25"/>
       <c r="L142" s="2"/>
       <c r="O142" s="1"/>
       <c r="P142" s="3"/>
-      <c r="Q142" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="R142" s="19"/>
-    </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q142" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R142" s="21"/>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="E143" s="2"/>
-      <c r="G143" s="16"/>
-      <c r="H143" s="17"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="27"/>
       <c r="L143" s="2"/>
       <c r="O143" s="2"/>
-      <c r="Q143" s="20"/>
-      <c r="R143" s="21"/>
-    </row>
-    <row r="144" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="22"/>
-      <c r="L144" s="24"/>
-      <c r="O144" s="24"/>
-      <c r="Q144" s="22"/>
-      <c r="R144" s="22"/>
-    </row>
-    <row r="145" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="G145" s="22"/>
-      <c r="H145" s="22"/>
-      <c r="L145" s="24"/>
+      <c r="Q143" s="22"/>
+      <c r="R143" s="23"/>
+    </row>
+    <row r="144" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="L144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="Q144" s="10"/>
+      <c r="R144" s="10"/>
+    </row>
+    <row r="145" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="L145" s="12"/>
       <c r="O145" s="1"/>
       <c r="P145" s="3"/>
-      <c r="Q145" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="R145" s="15"/>
-    </row>
-    <row r="146" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="G146" s="22"/>
-      <c r="H146" s="22"/>
-      <c r="L146" s="24"/>
+      <c r="Q145" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="R145" s="25"/>
+    </row>
+    <row r="146" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="L146" s="12"/>
       <c r="O146" s="6"/>
       <c r="P146"/>
-      <c r="Q146" s="16"/>
-      <c r="R146" s="17"/>
-    </row>
-    <row r="147" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="L147" s="24"/>
-      <c r="O147" s="24"/>
-    </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q146" s="26"/>
+      <c r="R146" s="27"/>
+    </row>
+    <row r="147" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="O147" s="12"/>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="E148" s="1"/>
       <c r="F148" s="3"/>
-      <c r="G148" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H148" s="15"/>
+      <c r="G148" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H148" s="25"/>
       <c r="L148" s="2"/>
       <c r="O148" s="1"/>
       <c r="P148" s="3"/>
-      <c r="Q148" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="R148" s="19"/>
-    </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q148" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R148" s="21"/>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="E149" s="2"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="17"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="27"/>
       <c r="L149" s="2"/>
       <c r="O149" s="2"/>
-      <c r="Q149" s="20"/>
-      <c r="R149" s="21"/>
-    </row>
-    <row r="150" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="G150" s="22"/>
-      <c r="H150" s="22"/>
-      <c r="L150" s="24"/>
-      <c r="O150" s="24"/>
-      <c r="Q150" s="22"/>
-      <c r="R150" s="22"/>
-    </row>
-    <row r="151" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="24"/>
-      <c r="E151" s="24"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
-      <c r="L151" s="24"/>
+      <c r="Q149" s="22"/>
+      <c r="R149" s="23"/>
+    </row>
+    <row r="150" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="L150" s="12"/>
+      <c r="O150" s="12"/>
+      <c r="Q150" s="10"/>
+      <c r="R150" s="10"/>
+    </row>
+    <row r="151" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="L151" s="12"/>
       <c r="O151" s="1"/>
       <c r="P151" s="3"/>
-      <c r="Q151" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="R151" s="15"/>
-    </row>
-    <row r="152" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="24"/>
-      <c r="E152" s="24"/>
-      <c r="G152" s="22"/>
-      <c r="H152" s="22"/>
-      <c r="L152" s="24"/>
+      <c r="Q151" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="R151" s="25"/>
+    </row>
+    <row r="152" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="L152" s="12"/>
       <c r="O152" s="6"/>
       <c r="P152"/>
-      <c r="Q152" s="16"/>
-      <c r="R152" s="17"/>
-    </row>
-    <row r="153" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q152" s="26"/>
+      <c r="R152" s="27"/>
+    </row>
+    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="E153" s="2"/>
       <c r="L153" s="2"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="E154" s="1"/>
       <c r="F154" s="3"/>
-      <c r="G154" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H154" s="15"/>
+      <c r="G154" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" s="25"/>
       <c r="L154" s="2"/>
       <c r="O154" s="1"/>
       <c r="P154" s="3"/>
-      <c r="Q154" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R154" s="19"/>
-    </row>
-    <row r="155" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q154" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="R154" s="21"/>
+    </row>
+    <row r="155" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="E155" s="7"/>
-      <c r="G155" s="16"/>
-      <c r="H155" s="17"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="27"/>
       <c r="L155" s="2"/>
       <c r="O155" s="7"/>
-      <c r="Q155" s="20"/>
-      <c r="R155" s="21"/>
-    </row>
-    <row r="156" spans="2:18" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="24"/>
-      <c r="E156" s="25"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="22"/>
-      <c r="L156" s="24"/>
-      <c r="O156" s="25"/>
-      <c r="Q156" s="22"/>
-      <c r="R156" s="22"/>
-    </row>
-    <row r="157" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q155" s="22"/>
+      <c r="R155" s="23"/>
+    </row>
+    <row r="156" spans="2:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="12"/>
+      <c r="E156" s="13"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="L156" s="12"/>
+      <c r="O156" s="13"/>
+      <c r="Q156" s="10"/>
+      <c r="R156" s="10"/>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E157" s="9"/>
+      <c r="D157" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E157" s="17"/>
       <c r="L157" s="1"/>
       <c r="M157" s="5"/>
-      <c r="N157" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O157" s="9"/>
-    </row>
-    <row r="158" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N157" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O157" s="17"/>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="11"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="19"/>
       <c r="L158" s="6"/>
-      <c r="N158" s="10"/>
-      <c r="O158" s="11"/>
-    </row>
-    <row r="159" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N158" s="18"/>
+      <c r="O158" s="19"/>
+    </row>
+    <row r="159" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="E159" s="6"/>
       <c r="L159" s="2"/>
       <c r="O159" s="6"/>
     </row>
-    <row r="160" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="E160" s="1"/>
       <c r="F160" s="3"/>
-      <c r="G160" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H160" s="15"/>
+      <c r="G160" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" s="25"/>
       <c r="L160" s="2"/>
       <c r="O160" s="1"/>
       <c r="P160" s="3"/>
-      <c r="Q160" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="R160" s="19"/>
-    </row>
-    <row r="161" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q160" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R160" s="21"/>
+    </row>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="E161" s="7"/>
-      <c r="G161" s="16"/>
-      <c r="H161" s="17"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="27"/>
       <c r="L161" s="2"/>
       <c r="O161" s="6"/>
-      <c r="Q161" s="20"/>
-      <c r="R161" s="21"/>
-    </row>
-    <row r="162" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q161" s="22"/>
+      <c r="R161" s="23"/>
+    </row>
+    <row r="162" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="L162" s="2"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
       <c r="L163" s="2"/>
       <c r="O163" s="1"/>
       <c r="P163" s="3"/>
-      <c r="Q163" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="R163" s="15"/>
-    </row>
-    <row r="164" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q163" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="R163" s="25"/>
+    </row>
+    <row r="164" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="L164" s="2"/>
       <c r="O164" s="7"/>
-      <c r="Q164" s="16"/>
-      <c r="R164" s="17"/>
-    </row>
-    <row r="165" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q164" s="26"/>
+      <c r="R164" s="27"/>
+    </row>
+    <row r="165" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E166" s="9"/>
+      <c r="D166" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E166" s="17"/>
       <c r="L166" s="1"/>
       <c r="M166" s="5"/>
-      <c r="N166" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="O166" s="9"/>
-    </row>
-    <row r="167" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D167" s="10"/>
-      <c r="E167" s="11"/>
-      <c r="N167" s="10"/>
-      <c r="O167" s="11"/>
-    </row>
-    <row r="168" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N166" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O166" s="17"/>
+    </row>
+    <row r="167" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D167" s="18"/>
+      <c r="E167" s="19"/>
+      <c r="N167" s="18"/>
+      <c r="O167" s="19"/>
+    </row>
+    <row r="168" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E168" s="6"/>
       <c r="O168" s="6"/>
     </row>
-    <row r="169" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E169" s="1"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H169" s="15"/>
+      <c r="G169" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H169" s="25"/>
       <c r="O169" s="1"/>
       <c r="P169" s="3"/>
-      <c r="Q169" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="R169" s="19"/>
-    </row>
-    <row r="170" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q169" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="R169" s="21"/>
+    </row>
+    <row r="170" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E170" s="6"/>
-      <c r="G170" s="16"/>
-      <c r="H170" s="17"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="27"/>
       <c r="O170" s="6"/>
-      <c r="Q170" s="20"/>
-      <c r="R170" s="21"/>
-    </row>
-    <row r="171" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q170" s="22"/>
+      <c r="R170" s="23"/>
+    </row>
+    <row r="171" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E171" s="2"/>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E172" s="2"/>
       <c r="O172" s="1"/>
       <c r="P172" s="3"/>
-      <c r="Q172" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="R172" s="15"/>
-    </row>
-    <row r="173" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q172" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="R172" s="25"/>
+    </row>
+    <row r="173" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E173" s="2"/>
       <c r="O173" s="6"/>
-      <c r="Q173" s="16"/>
-      <c r="R173" s="17"/>
-    </row>
-    <row r="174" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q173" s="26"/>
+      <c r="R173" s="27"/>
+    </row>
+    <row r="174" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E174" s="2"/>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E175" s="1"/>
       <c r="F175" s="3"/>
-      <c r="G175" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H175" s="15"/>
+      <c r="G175" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H175" s="25"/>
       <c r="O175" s="1"/>
       <c r="P175" s="3"/>
-      <c r="Q175" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="R175" s="19"/>
-    </row>
-    <row r="176" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q175" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="R175" s="21"/>
+    </row>
+    <row r="176" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E176" s="7"/>
-      <c r="G176" s="16"/>
-      <c r="H176" s="17"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="27"/>
       <c r="O176" s="6"/>
-      <c r="Q176" s="20"/>
-      <c r="R176" s="21"/>
-    </row>
-    <row r="177" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="Q176" s="22"/>
+      <c r="R176" s="23"/>
+    </row>
+    <row r="177" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="15:18" x14ac:dyDescent="0.2">
+    <row r="178" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O178" s="1"/>
       <c r="P178" s="3"/>
-      <c r="Q178" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="R178" s="15"/>
-    </row>
-    <row r="179" spans="15:18" x14ac:dyDescent="0.2">
+      <c r="Q178" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R178" s="25"/>
+    </row>
+    <row r="179" spans="15:18" x14ac:dyDescent="0.25">
       <c r="O179" s="7"/>
-      <c r="Q179" s="16"/>
-      <c r="R179" s="17"/>
+      <c r="Q179" s="26"/>
+      <c r="R179" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="99">
     <mergeCell ref="Q178:R179"/>
     <mergeCell ref="D79:E80"/>
     <mergeCell ref="G82:H83"/>
@@ -2688,25 +3146,6 @@
     <mergeCell ref="Q175:R176"/>
     <mergeCell ref="Q163:R164"/>
     <mergeCell ref="N118:O119"/>
-    <mergeCell ref="D118:E119"/>
-    <mergeCell ref="Q121:R122"/>
-    <mergeCell ref="Q124:R125"/>
-    <mergeCell ref="Q127:R128"/>
-    <mergeCell ref="Q130:R131"/>
-    <mergeCell ref="G121:H122"/>
-    <mergeCell ref="G127:H128"/>
-    <mergeCell ref="Q115:R116"/>
-    <mergeCell ref="Q109:R110"/>
-    <mergeCell ref="Q103:R104"/>
-    <mergeCell ref="Q97:R98"/>
-    <mergeCell ref="Q139:R140"/>
-    <mergeCell ref="Q46:R47"/>
-    <mergeCell ref="Q58:R59"/>
-    <mergeCell ref="Q64:R65"/>
-    <mergeCell ref="Q70:R71"/>
-    <mergeCell ref="Q76:R77"/>
-    <mergeCell ref="Q154:R155"/>
-    <mergeCell ref="N157:O158"/>
     <mergeCell ref="Q160:R161"/>
     <mergeCell ref="Q13:R14"/>
     <mergeCell ref="Q22:R23"/>
@@ -2717,58 +3156,274 @@
     <mergeCell ref="Q151:R152"/>
     <mergeCell ref="Q106:R107"/>
     <mergeCell ref="Q112:R113"/>
-    <mergeCell ref="N133:O134"/>
     <mergeCell ref="Q136:R137"/>
     <mergeCell ref="Q142:R143"/>
     <mergeCell ref="Q148:R149"/>
-    <mergeCell ref="Q61:R62"/>
-    <mergeCell ref="Q67:R68"/>
-    <mergeCell ref="Q73:R74"/>
+    <mergeCell ref="Q46:R47"/>
+    <mergeCell ref="Q58:R59"/>
+    <mergeCell ref="Q64:R65"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="Q19:R20"/>
     <mergeCell ref="N91:O92"/>
     <mergeCell ref="Q94:R95"/>
-    <mergeCell ref="Q100:R101"/>
     <mergeCell ref="Q31:R32"/>
     <mergeCell ref="Q37:R38"/>
     <mergeCell ref="Q43:R44"/>
     <mergeCell ref="N49:O50"/>
     <mergeCell ref="Q55:R56"/>
+    <mergeCell ref="Q70:R71"/>
+    <mergeCell ref="Q76:R77"/>
+    <mergeCell ref="Q61:R62"/>
+    <mergeCell ref="Q67:R68"/>
+    <mergeCell ref="Q73:R74"/>
+    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="D91:E92"/>
+    <mergeCell ref="D49:E50"/>
     <mergeCell ref="N4:O5"/>
     <mergeCell ref="N7:O8"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="Q25:R26"/>
+    <mergeCell ref="N157:O158"/>
+    <mergeCell ref="N133:O134"/>
+    <mergeCell ref="D118:E119"/>
+    <mergeCell ref="G121:H122"/>
+    <mergeCell ref="G127:H128"/>
+    <mergeCell ref="G52:H53"/>
     <mergeCell ref="G142:H143"/>
     <mergeCell ref="G148:H149"/>
     <mergeCell ref="G154:H155"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="Q154:R155"/>
+    <mergeCell ref="Q115:R116"/>
+    <mergeCell ref="Q109:R110"/>
+    <mergeCell ref="Q103:R104"/>
     <mergeCell ref="D157:E158"/>
+    <mergeCell ref="D133:E134"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="Q97:R98"/>
+    <mergeCell ref="Q139:R140"/>
+    <mergeCell ref="Q121:R122"/>
+    <mergeCell ref="Q124:R125"/>
+    <mergeCell ref="Q127:R128"/>
+    <mergeCell ref="Q130:R131"/>
+    <mergeCell ref="Q100:R101"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="D16:E17"/>
     <mergeCell ref="G160:H161"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="G100:H101"/>
     <mergeCell ref="G106:H107"/>
     <mergeCell ref="G112:H113"/>
-    <mergeCell ref="D133:E134"/>
     <mergeCell ref="G136:H137"/>
     <mergeCell ref="G55:H56"/>
     <mergeCell ref="G61:H62"/>
     <mergeCell ref="G67:H68"/>
     <mergeCell ref="G73:H74"/>
-    <mergeCell ref="D91:E92"/>
     <mergeCell ref="G94:H95"/>
     <mergeCell ref="G25:H26"/>
     <mergeCell ref="G31:H32"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="G43:H44"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="G52:H53"/>
+    <mergeCell ref="U1:V2"/>
+    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="AB1:AC2"/>
+    <mergeCell ref="AE4:AF5"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="D4:E5"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A59467EB-CF21-4F46-B94D-5AD08DFBB3E9}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="5.6328125" customWidth="1"/>
+    <col min="4" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="5.6328125" customWidth="1"/>
+    <col min="11" max="12" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="K1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="H16" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="H7:I8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>